--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/BIIB/BIIBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/BIIB/BIIBRandom.xlsx
@@ -101,7 +101,7 @@
     <t>UpDown</t>
   </si>
   <si>
-    <t>Sell</t>
+    <t>Strong Sell</t>
   </si>
   <si>
     <t>Random</t>
@@ -435,7 +435,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -527,10 +527,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42651.426111111112</v>
+        <v>42651.599583333336</v>
       </c>
       <c r="B2">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -575,7 +575,7 @@
         <v>26</v>
       </c>
       <c r="Q2">
-        <v>44.409435964196724</v>
+        <v>46.242130528922125</v>
       </c>
       <c r="R2">
         <v>1.8</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
